--- a/Documentations/infos_instructions.xlsx
+++ b/Documentations/infos_instructions.xlsx
@@ -209,7 +209,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -251,21 +251,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -400,6 +385,71 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -411,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -425,52 +475,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -488,6 +523,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -495,6 +533,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -798,253 +851,282 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.5546875" style="1"/>
-    <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="2" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="5" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="16"/>
+      <c r="C3" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="7" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="16"/>
+      <c r="C4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="8">
+      <c r="D4" s="6">
         <v>64</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="9" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="4"/>
+      <c r="C5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="10">
+      <c r="D5" s="8">
         <v>128</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="5" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="16"/>
+      <c r="C7" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="7" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="16"/>
+      <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="17">
+      <c r="D8" s="13">
         <v>4</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
-      <c r="B9" s="9" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="16"/>
+      <c r="C9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="20">
+      <c r="D9" s="15">
         <v>128</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-    </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="C11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="D11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="F11" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="29">
         <v>1</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="F12" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="29">
+        <v>2</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="F13" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="29">
+        <v>3</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="E14" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="F14" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="29">
+        <v>4</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="F15" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="29">
+        <v>5</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="D16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="E16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="F16" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="29">
+        <v>6</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="D17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="E17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="F17" s="13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="18" t="s">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="29">
+        <v>7</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="C18" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="D18" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="E18" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="F18" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="29">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/Documentations/infos_instructions.xlsx
+++ b/Documentations/infos_instructions.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="37">
   <si>
     <t>Instruction</t>
   </si>
@@ -170,6 +170,15 @@
   </si>
   <si>
     <t>EEPROM</t>
+  </si>
+  <si>
+    <t>Atmega 48</t>
+  </si>
+  <si>
+    <t>aaa0 0000</t>
+  </si>
+  <si>
+    <t>0000 aaaa</t>
   </si>
 </sst>
 </file>
@@ -209,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -457,11 +466,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -523,6 +547,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -538,16 +574,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -851,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -864,35 +897,59 @@
     <col min="3" max="3" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.5546875" style="1"/>
+    <col min="7" max="7" width="11.5546875" style="1"/>
+    <col min="8" max="8" width="33.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="23"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="H1" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="27"/>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="16"/>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H2" s="16"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" s="16"/>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="25"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="17"/>
       <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="16"/>
+      <c r="I3" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="29"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="16"/>
       <c r="C4" s="5" t="s">
         <v>30</v>
@@ -902,8 +959,17 @@
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="16"/>
+      <c r="I4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="6">
+        <v>32</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
       <c r="C5" s="7" t="s">
         <v>31</v>
@@ -913,24 +979,45 @@
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="20"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="4"/>
+      <c r="I5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="8">
+        <v>64</v>
+      </c>
+      <c r="K5" s="19"/>
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="18"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="16"/>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="17"/>
       <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H7" s="16"/>
+      <c r="I7" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="29"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="18"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="16"/>
       <c r="C8" s="5" t="s">
         <v>30</v>
@@ -940,8 +1027,17 @@
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="16"/>
+      <c r="I8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="13">
+        <v>4</v>
+      </c>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="16"/>
       <c r="C9" s="7" t="s">
         <v>31</v>
@@ -951,17 +1047,31 @@
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="16"/>
+      <c r="I9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="15">
+        <v>128</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="16"/>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H10" s="16"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -976,12 +1086,27 @@
       <c r="F11" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="29">
+      <c r="H11" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
         <v>1</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="9" t="s">
@@ -996,12 +1121,27 @@
       <c r="F12" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="29">
+      <c r="H12" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="24">
         <v>2</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="22" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -1016,12 +1156,27 @@
       <c r="F13" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="29">
+      <c r="H13" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="24">
         <v>3</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -1036,12 +1191,27 @@
       <c r="F14" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="29">
+      <c r="H14" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="24">
         <v>4</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -1056,12 +1226,27 @@
       <c r="F15" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="29">
+      <c r="H15" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="24">
         <v>5</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -1076,12 +1261,27 @@
       <c r="F16" s="13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="29">
+      <c r="H16" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="24">
         <v>6</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -1096,12 +1296,27 @@
       <c r="F17" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="29">
+      <c r="H17" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="24">
         <v>7</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="14" t="s">
@@ -1116,17 +1331,35 @@
       <c r="F18" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="29">
+      <c r="H18" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="15" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="24">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
